--- a/SoftbankExcel/表單/SoftBankSummaryTable.xlsx
+++ b/SoftbankExcel/表單/SoftBankSummaryTable.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltao365-my.sharepoint.com/personal/boris_wang_deltaww_com/Documents/deltaproject/DEJbackup/SoftbankExcel/表單/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2459D684643EAE87CD3F5C0498A8C1467EA0AC6F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33FE7AC6-BF32-4061-8911-66647C122AD3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="dbo.SoftBankSummaryView" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>dej_Estimate_Number</t>
   </si>
@@ -157,15 +151,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,15 +167,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,28 +211,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +262,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -317,7 +296,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -352,10 +330,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -528,41 +505,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="73" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
@@ -725,7 +673,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>